--- a/Design Input File master.xlsx
+++ b/Design Input File master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\Documents\GitHub\ASEN-2804-Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b132055eeb3c9067/Documents/GitHub/ASEN-2804-Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FEAE44-B936-4038-A3F9-A5C6F2C17433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{52FEAE44-B936-4038-A3F9-A5C6F2C17433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F2ABEFD-511A-4F98-88E0-0FD44F9C8D70}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="2" xr2:uid="{904FC4B5-3CDE-421B-8E98-23A2C72E8C1E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{904FC4B5-3CDE-421B-8E98-23A2C72E8C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable Reference" sheetId="8" r:id="rId1"/>
@@ -2392,6 +2392,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -2695,16 +2699,16 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.46484375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="104.46484375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="104.453125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>195</v>
       </c>
@@ -2718,7 +2722,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>196</v>
       </c>
@@ -2733,7 +2737,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>196</v>
       </c>
@@ -2747,7 +2751,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>196</v>
       </c>
@@ -2761,7 +2765,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>196</v>
       </c>
@@ -2775,7 +2779,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>196</v>
       </c>
@@ -2789,7 +2793,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>196</v>
       </c>
@@ -2803,7 +2807,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>196</v>
       </c>
@@ -2817,7 +2821,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>196</v>
       </c>
@@ -2831,7 +2835,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>196</v>
       </c>
@@ -2845,7 +2849,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>196</v>
       </c>
@@ -2859,7 +2863,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>196</v>
       </c>
@@ -2873,7 +2877,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>196</v>
       </c>
@@ -2887,7 +2891,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>196</v>
       </c>
@@ -2901,7 +2905,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>196</v>
       </c>
@@ -2915,7 +2919,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>196</v>
       </c>
@@ -2929,7 +2933,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>196</v>
       </c>
@@ -2943,7 +2947,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>196</v>
       </c>
@@ -2957,7 +2961,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>196</v>
       </c>
@@ -2971,7 +2975,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>196</v>
       </c>
@@ -2985,7 +2989,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>196</v>
       </c>
@@ -2999,7 +3003,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>196</v>
       </c>
@@ -3013,7 +3017,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>196</v>
       </c>
@@ -3027,7 +3031,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>196</v>
       </c>
@@ -3041,7 +3045,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>196</v>
       </c>
@@ -3055,7 +3059,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>196</v>
       </c>
@@ -3069,7 +3073,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>196</v>
       </c>
@@ -3083,7 +3087,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>196</v>
       </c>
@@ -3097,7 +3101,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>196</v>
       </c>
@@ -3111,7 +3115,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>196</v>
       </c>
@@ -3125,7 +3129,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>196</v>
       </c>
@@ -3139,7 +3143,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>196</v>
       </c>
@@ -3153,7 +3157,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>196</v>
       </c>
@@ -3167,7 +3171,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>196</v>
       </c>
@@ -3181,7 +3185,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>196</v>
       </c>
@@ -3195,7 +3199,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>196</v>
       </c>
@@ -3209,7 +3213,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>196</v>
       </c>
@@ -3223,7 +3227,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>196</v>
       </c>
@@ -3237,7 +3241,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>196</v>
       </c>
@@ -3251,7 +3255,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>196</v>
       </c>
@@ -3265,7 +3269,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>196</v>
       </c>
@@ -3279,7 +3283,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>196</v>
       </c>
@@ -3293,7 +3297,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>196</v>
       </c>
@@ -3307,7 +3311,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>196</v>
       </c>
@@ -3321,7 +3325,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>196</v>
       </c>
@@ -3335,7 +3339,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>196</v>
       </c>
@@ -3349,7 +3353,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>196</v>
       </c>
@@ -3363,7 +3367,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>196</v>
       </c>
@@ -3377,7 +3381,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>196</v>
       </c>
@@ -3391,7 +3395,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>196</v>
       </c>
@@ -3405,7 +3409,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>196</v>
       </c>
@@ -3419,7 +3423,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>196</v>
       </c>
@@ -3433,7 +3437,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>197</v>
       </c>
@@ -3447,7 +3451,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>197</v>
       </c>
@@ -3461,7 +3465,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>197</v>
       </c>
@@ -3475,7 +3479,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>197</v>
       </c>
@@ -3489,7 +3493,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>197</v>
       </c>
@@ -3503,7 +3507,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>197</v>
       </c>
@@ -3517,7 +3521,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>197</v>
       </c>
@@ -3531,7 +3535,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>197</v>
       </c>
@@ -3545,7 +3549,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>197</v>
       </c>
@@ -3559,7 +3563,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>197</v>
       </c>
@@ -3573,7 +3577,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>197</v>
       </c>
@@ -3587,7 +3591,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>197</v>
       </c>
@@ -3601,7 +3605,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>197</v>
       </c>
@@ -3615,7 +3619,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>197</v>
       </c>
@@ -3629,7 +3633,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>197</v>
       </c>
@@ -3643,7 +3647,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>197</v>
       </c>
@@ -3657,7 +3661,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>197</v>
       </c>
@@ -3671,7 +3675,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>197</v>
       </c>
@@ -3699,7 +3703,7 @@
       <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3710,28 +3714,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ADD393-55AB-49FB-9382-D2896E9EB980}">
   <dimension ref="A1:AY121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ127" sqref="AQ127"/>
+      <selection pane="topRight" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.46484375" customWidth="1"/>
-    <col min="2" max="2" width="10.46484375" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.796875" customWidth="1"/>
-    <col min="16" max="16" width="14.46484375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.81640625" customWidth="1"/>
+    <col min="16" max="16" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -3886,7 +3890,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -3929,7 +3933,7 @@
       </c>
       <c r="M2">
         <f>'Trade Studies'!M2</f>
-        <v>5.7142857142857144</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -4046,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -4206,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -4366,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>200</v>
       </c>
@@ -4526,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>200</v>
       </c>
@@ -4686,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -4846,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>200</v>
       </c>
@@ -5006,7 +5010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>200</v>
       </c>
@@ -5166,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>200</v>
       </c>
@@ -5326,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -5486,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -5646,7 +5650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>200</v>
       </c>
@@ -5806,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>200</v>
       </c>
@@ -5966,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>200</v>
       </c>
@@ -6126,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>200</v>
       </c>
@@ -6286,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>201</v>
       </c>
@@ -6329,7 +6333,7 @@
       </c>
       <c r="M17">
         <f>'Trade Studies'!N2</f>
-        <v>5.25</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -6446,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -6489,7 +6493,7 @@
       </c>
       <c r="M18">
         <f>'Trade Studies'!N3</f>
-        <v>7.5</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -6606,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>201</v>
       </c>
@@ -6649,7 +6653,7 @@
       </c>
       <c r="M19">
         <f>'Trade Studies'!N4</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -6766,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>201</v>
       </c>
@@ -6809,7 +6813,7 @@
       </c>
       <c r="M20">
         <f>'Trade Studies'!N5</f>
-        <v>8.5</v>
+        <v>4.7058823529411766</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -6926,7 +6930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>201</v>
       </c>
@@ -6969,7 +6973,7 @@
       </c>
       <c r="M21">
         <f>'Trade Studies'!N6</f>
-        <v>9</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -7086,7 +7090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>201</v>
       </c>
@@ -7129,7 +7133,7 @@
       </c>
       <c r="M22">
         <f>'Trade Studies'!N7</f>
-        <v>9.5</v>
+        <v>4.2105263157894735</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -7246,7 +7250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>201</v>
       </c>
@@ -7289,7 +7293,7 @@
       </c>
       <c r="M23">
         <f>'Trade Studies'!N8</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -7406,7 +7410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>201</v>
       </c>
@@ -7449,7 +7453,7 @@
       </c>
       <c r="M24">
         <f>'Trade Studies'!N9</f>
-        <v>10.5</v>
+        <v>3.8095238095238093</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -7566,7 +7570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>201</v>
       </c>
@@ -7609,7 +7613,7 @@
       </c>
       <c r="M25">
         <f>'Trade Studies'!N10</f>
-        <v>11</v>
+        <v>3.6363636363636362</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -7726,7 +7730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>201</v>
       </c>
@@ -7769,7 +7773,7 @@
       </c>
       <c r="M26">
         <f>'Trade Studies'!N11</f>
-        <v>11.5</v>
+        <v>3.4782608695652173</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -7886,7 +7890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>201</v>
       </c>
@@ -7929,7 +7933,7 @@
       </c>
       <c r="M27">
         <f>'Trade Studies'!N12</f>
-        <v>12</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -8046,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>201</v>
       </c>
@@ -8089,7 +8093,7 @@
       </c>
       <c r="M28">
         <f>'Trade Studies'!N13</f>
-        <v>12.5</v>
+        <v>3.2</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -8206,7 +8210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -8249,7 +8253,7 @@
       </c>
       <c r="M29">
         <f>'Trade Studies'!N14</f>
-        <v>13.000000000000002</v>
+        <v>3.0769230769230771</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -8366,7 +8370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>201</v>
       </c>
@@ -8409,7 +8413,7 @@
       </c>
       <c r="M30">
         <f>'Trade Studies'!N15</f>
-        <v>13.5</v>
+        <v>2.9629629629629628</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -8526,7 +8530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>201</v>
       </c>
@@ -8569,7 +8573,7 @@
       </c>
       <c r="M31">
         <f>'Trade Studies'!N16</f>
-        <v>14</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -8686,7 +8690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>202</v>
       </c>
@@ -8729,7 +8733,7 @@
       </c>
       <c r="M32">
         <f>'Trade Studies'!O2</f>
-        <v>9.5238095238095237</v>
+        <v>7.1428571428571432</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -8846,7 +8850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>202</v>
       </c>
@@ -9006,7 +9010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>202</v>
       </c>
@@ -9166,7 +9170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>202</v>
       </c>
@@ -9326,7 +9330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>202</v>
       </c>
@@ -9486,7 +9490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>202</v>
       </c>
@@ -9646,7 +9650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>202</v>
       </c>
@@ -9806,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>202</v>
       </c>
@@ -9966,7 +9970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>202</v>
       </c>
@@ -10126,7 +10130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>202</v>
       </c>
@@ -10286,7 +10290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>202</v>
       </c>
@@ -10446,7 +10450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>202</v>
       </c>
@@ -10606,7 +10610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>202</v>
       </c>
@@ -10649,7 +10653,7 @@
       </c>
       <c r="M44">
         <f>'Trade Studies'!O14</f>
-        <v>3.8461538461538458</v>
+        <v>3.8461538461538463</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -10766,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>202</v>
       </c>
@@ -10926,7 +10930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>202</v>
       </c>
@@ -11086,7 +11090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>203</v>
       </c>
@@ -11129,7 +11133,7 @@
       </c>
       <c r="M47">
         <f>'Trade Studies'!P2</f>
-        <v>6.3</v>
+        <v>8.5714285714285712</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -11246,7 +11250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>203</v>
       </c>
@@ -11289,7 +11293,7 @@
       </c>
       <c r="M48">
         <f>'Trade Studies'!P3</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -11406,7 +11410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>203</v>
       </c>
@@ -11449,7 +11453,7 @@
       </c>
       <c r="M49">
         <f>'Trade Studies'!P4</f>
-        <v>9.6</v>
+        <v>7.5</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -11566,7 +11570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>203</v>
       </c>
@@ -11609,7 +11613,7 @@
       </c>
       <c r="M50">
         <f>'Trade Studies'!P5</f>
-        <v>10.199999999999999</v>
+        <v>7.0588235294117645</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -11726,7 +11730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>203</v>
       </c>
@@ -11769,7 +11773,7 @@
       </c>
       <c r="M51">
         <f>'Trade Studies'!P6</f>
-        <v>10.8</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -11886,7 +11890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>203</v>
       </c>
@@ -11929,7 +11933,7 @@
       </c>
       <c r="M52">
         <f>'Trade Studies'!P7</f>
-        <v>11.399999999999999</v>
+        <v>6.3157894736842106</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -12046,7 +12050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>203</v>
       </c>
@@ -12089,7 +12093,7 @@
       </c>
       <c r="M53">
         <f>'Trade Studies'!P8</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -12206,7 +12210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>203</v>
       </c>
@@ -12249,7 +12253,7 @@
       </c>
       <c r="M54">
         <f>'Trade Studies'!P9</f>
-        <v>12.6</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -12366,7 +12370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>203</v>
       </c>
@@ -12409,7 +12413,7 @@
       </c>
       <c r="M55">
         <f>'Trade Studies'!P10</f>
-        <v>13.2</v>
+        <v>5.4545454545454541</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -12526,7 +12530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>203</v>
       </c>
@@ -12569,7 +12573,7 @@
       </c>
       <c r="M56">
         <f>'Trade Studies'!P11</f>
-        <v>13.8</v>
+        <v>5.2173913043478262</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -12686,7 +12690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>203</v>
       </c>
@@ -12729,7 +12733,7 @@
       </c>
       <c r="M57">
         <f>'Trade Studies'!P12</f>
-        <v>14.399999999999999</v>
+        <v>5</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -12846,7 +12850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>203</v>
       </c>
@@ -12889,7 +12893,7 @@
       </c>
       <c r="M58">
         <f>'Trade Studies'!P13</f>
-        <v>15</v>
+        <v>4.8</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -13006,7 +13010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>203</v>
       </c>
@@ -13049,7 +13053,7 @@
       </c>
       <c r="M59">
         <f>'Trade Studies'!P14</f>
-        <v>15.600000000000001</v>
+        <v>4.615384615384615</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -13166,7 +13170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>203</v>
       </c>
@@ -13209,7 +13213,7 @@
       </c>
       <c r="M60">
         <f>'Trade Studies'!P15</f>
-        <v>16.2</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -13326,7 +13330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>203</v>
       </c>
@@ -13369,7 +13373,7 @@
       </c>
       <c r="M61">
         <f>'Trade Studies'!P16</f>
-        <v>16.8</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -13486,7 +13490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>204</v>
       </c>
@@ -13529,7 +13533,7 @@
       </c>
       <c r="M62">
         <f>'Trade Studies'!Q2</f>
-        <v>11.111111111111111</v>
+        <v>10</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -13646,7 +13650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>204</v>
       </c>
@@ -13689,7 +13693,7 @@
       </c>
       <c r="M63">
         <f>'Trade Studies'!Q3</f>
-        <v>7.7777777777777777</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -13785,7 +13789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>204</v>
       </c>
@@ -13828,7 +13832,7 @@
       </c>
       <c r="M64">
         <f>'Trade Studies'!Q4</f>
-        <v>7.291666666666667</v>
+        <v>8.75</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -13924,7 +13928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>204</v>
       </c>
@@ -13967,7 +13971,7 @@
       </c>
       <c r="M65">
         <f>'Trade Studies'!Q5</f>
-        <v>6.8627450980392162</v>
+        <v>8.235294117647058</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -14063,7 +14067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>204</v>
       </c>
@@ -14106,7 +14110,7 @@
       </c>
       <c r="M66">
         <f>'Trade Studies'!Q6</f>
-        <v>6.481481481481481</v>
+        <v>7.7777777777777777</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -14202,7 +14206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>204</v>
       </c>
@@ -14245,7 +14249,7 @@
       </c>
       <c r="M67">
         <f>'Trade Studies'!Q7</f>
-        <v>6.1403508771929829</v>
+        <v>7.3684210526315788</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -14341,7 +14345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>204</v>
       </c>
@@ -14384,7 +14388,7 @@
       </c>
       <c r="M68">
         <f>'Trade Studies'!Q8</f>
-        <v>5.833333333333333</v>
+        <v>7</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -14480,7 +14484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>204</v>
       </c>
@@ -14523,7 +14527,7 @@
       </c>
       <c r="M69">
         <f>'Trade Studies'!Q9</f>
-        <v>5.5555555555555554</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -14619,7 +14623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>204</v>
       </c>
@@ -14662,7 +14666,7 @@
       </c>
       <c r="M70">
         <f>'Trade Studies'!Q10</f>
-        <v>5.3030303030303036</v>
+        <v>6.3636363636363633</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -14758,7 +14762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -14801,7 +14805,7 @@
       </c>
       <c r="M71">
         <f>'Trade Studies'!Q11</f>
-        <v>5.0724637681159415</v>
+        <v>6.0869565217391308</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -14897,7 +14901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>204</v>
       </c>
@@ -14940,7 +14944,7 @@
       </c>
       <c r="M72">
         <f>'Trade Studies'!Q12</f>
-        <v>4.8611111111111116</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -15036,7 +15040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>204</v>
       </c>
@@ -15079,7 +15083,7 @@
       </c>
       <c r="M73">
         <f>'Trade Studies'!Q13</f>
-        <v>4.666666666666667</v>
+        <v>5.6</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -15175,7 +15179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>204</v>
       </c>
@@ -15218,7 +15222,7 @@
       </c>
       <c r="M74">
         <f>'Trade Studies'!Q14</f>
-        <v>4.4871794871794863</v>
+        <v>5.384615384615385</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -15314,7 +15318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>204</v>
       </c>
@@ -15357,7 +15361,7 @@
       </c>
       <c r="M75">
         <f>'Trade Studies'!Q15</f>
-        <v>4.3209876543209882</v>
+        <v>5.1851851851851851</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -15453,7 +15457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>204</v>
       </c>
@@ -15496,7 +15500,7 @@
       </c>
       <c r="M76">
         <f>'Trade Studies'!Q16</f>
-        <v>4.1666666666666661</v>
+        <v>5</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -15592,7 +15596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>205</v>
       </c>
@@ -15635,7 +15639,7 @@
       </c>
       <c r="M77">
         <f>'Trade Studies'!R2</f>
-        <v>7.2</v>
+        <v>11.428571428571429</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -15731,7 +15735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>205</v>
       </c>
@@ -15774,7 +15778,7 @@
       </c>
       <c r="M78">
         <f>'Trade Studies'!R3</f>
-        <v>10.285714285714286</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -15870,7 +15874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>205</v>
       </c>
@@ -15913,7 +15917,7 @@
       </c>
       <c r="M79">
         <f>'Trade Studies'!R4</f>
-        <v>10.971428571428572</v>
+        <v>10</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -16009,7 +16013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>205</v>
       </c>
@@ -16052,7 +16056,7 @@
       </c>
       <c r="M80">
         <f>'Trade Studies'!R5</f>
-        <v>11.657142857142857</v>
+        <v>9.4117647058823533</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -16148,7 +16152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>205</v>
       </c>
@@ -16191,7 +16195,7 @@
       </c>
       <c r="M81">
         <f>'Trade Studies'!R6</f>
-        <v>12.342857142857143</v>
+        <v>8.8888888888888893</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -16287,7 +16291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>205</v>
       </c>
@@ -16330,7 +16334,7 @@
       </c>
       <c r="M82">
         <f>'Trade Studies'!R7</f>
-        <v>13.028571428571428</v>
+        <v>8.4210526315789469</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -16426,7 +16430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>205</v>
       </c>
@@ -16469,7 +16473,7 @@
       </c>
       <c r="M83">
         <f>'Trade Studies'!R8</f>
-        <v>13.714285714285715</v>
+        <v>8</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -16565,7 +16569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>205</v>
       </c>
@@ -16608,7 +16612,7 @@
       </c>
       <c r="M84">
         <f>'Trade Studies'!R9</f>
-        <v>14.4</v>
+        <v>7.6190476190476186</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -16704,7 +16708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>205</v>
       </c>
@@ -16747,7 +16751,7 @@
       </c>
       <c r="M85">
         <f>'Trade Studies'!R10</f>
-        <v>15.085714285714284</v>
+        <v>7.2727272727272725</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -16843,7 +16847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>205</v>
       </c>
@@ -16886,7 +16890,7 @@
       </c>
       <c r="M86">
         <f>'Trade Studies'!R11</f>
-        <v>15.771428571428574</v>
+        <v>6.9565217391304346</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -16982,7 +16986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>205</v>
       </c>
@@ -17025,7 +17029,7 @@
       </c>
       <c r="M87">
         <f>'Trade Studies'!R12</f>
-        <v>16.457142857142856</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -17121,7 +17125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>205</v>
       </c>
@@ -17164,7 +17168,7 @@
       </c>
       <c r="M88">
         <f>'Trade Studies'!R13</f>
-        <v>17.142857142857142</v>
+        <v>6.4</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -17260,7 +17264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>205</v>
       </c>
@@ -17303,7 +17307,7 @@
       </c>
       <c r="M89">
         <f>'Trade Studies'!R14</f>
-        <v>17.828571428571433</v>
+        <v>6.1538461538461542</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -17399,7 +17403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>205</v>
       </c>
@@ -17442,7 +17446,7 @@
       </c>
       <c r="M90">
         <f>'Trade Studies'!R15</f>
-        <v>18.514285714285712</v>
+        <v>5.9259259259259256</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -17538,7 +17542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>205</v>
       </c>
@@ -17581,7 +17585,7 @@
       </c>
       <c r="M91">
         <f>'Trade Studies'!R16</f>
-        <v>19.200000000000003</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -17677,7 +17681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>206</v>
       </c>
@@ -17720,7 +17724,7 @@
       </c>
       <c r="M92">
         <f>'Trade Studies'!S2</f>
-        <v>12.5</v>
+        <v>12.857142857142858</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -17816,7 +17820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>206</v>
       </c>
@@ -17859,7 +17863,7 @@
       </c>
       <c r="M93">
         <f>'Trade Studies'!S3</f>
-        <v>8.75</v>
+        <v>12</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -17955,7 +17959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>206</v>
       </c>
@@ -17998,7 +18002,7 @@
       </c>
       <c r="M94">
         <f>'Trade Studies'!S4</f>
-        <v>8.203125</v>
+        <v>11.25</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -18094,7 +18098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>206</v>
       </c>
@@ -18137,7 +18141,7 @@
       </c>
       <c r="M95">
         <f>'Trade Studies'!S5</f>
-        <v>7.7205882352941178</v>
+        <v>10.588235294117647</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -18233,7 +18237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>206</v>
       </c>
@@ -18276,7 +18280,7 @@
       </c>
       <c r="M96">
         <f>'Trade Studies'!S6</f>
-        <v>7.2916666666666661</v>
+        <v>10</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -18372,7 +18376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>206</v>
       </c>
@@ -18415,7 +18419,7 @@
       </c>
       <c r="M97">
         <f>'Trade Studies'!S7</f>
-        <v>6.9078947368421053</v>
+        <v>9.473684210526315</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -18511,7 +18515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>206</v>
       </c>
@@ -18554,7 +18558,7 @@
       </c>
       <c r="M98">
         <f>'Trade Studies'!S8</f>
-        <v>6.5624999999999991</v>
+        <v>9</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -18650,7 +18654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>206</v>
       </c>
@@ -18693,7 +18697,7 @@
       </c>
       <c r="M99">
         <f>'Trade Studies'!S9</f>
-        <v>6.25</v>
+        <v>8.5714285714285712</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -18789,7 +18793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>206</v>
       </c>
@@ -18832,7 +18836,7 @@
       </c>
       <c r="M100">
         <f>'Trade Studies'!S10</f>
-        <v>5.9659090909090917</v>
+        <v>8.1818181818181817</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -18928,7 +18932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>206</v>
       </c>
@@ -18971,7 +18975,7 @@
       </c>
       <c r="M101">
         <f>'Trade Studies'!S11</f>
-        <v>5.7065217391304337</v>
+        <v>7.8260869565217392</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -19067,7 +19071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>206</v>
       </c>
@@ -19110,7 +19114,7 @@
       </c>
       <c r="M102">
         <f>'Trade Studies'!S12</f>
-        <v>5.4687500000000009</v>
+        <v>7.5</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -19206,7 +19210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>206</v>
       </c>
@@ -19249,7 +19253,7 @@
       </c>
       <c r="M103">
         <f>'Trade Studies'!S13</f>
-        <v>5.25</v>
+        <v>7.2</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -19345,7 +19349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>206</v>
       </c>
@@ -19388,7 +19392,7 @@
       </c>
       <c r="M104">
         <f>'Trade Studies'!S14</f>
-        <v>5.0480769230769216</v>
+        <v>6.9230769230769234</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -19484,7 +19488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>206</v>
       </c>
@@ -19527,7 +19531,7 @@
       </c>
       <c r="M105">
         <f>'Trade Studies'!S15</f>
-        <v>4.8611111111111116</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -19623,7 +19627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>206</v>
       </c>
@@ -19666,7 +19670,7 @@
       </c>
       <c r="M106">
         <f>'Trade Studies'!S16</f>
-        <v>4.6874999999999991</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -19762,7 +19766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>207</v>
       </c>
@@ -19805,7 +19809,7 @@
       </c>
       <c r="M107">
         <f>'Trade Studies'!T2</f>
-        <v>8</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -19901,7 +19905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>207</v>
       </c>
@@ -19944,7 +19948,7 @@
       </c>
       <c r="M108">
         <f>'Trade Studies'!T3</f>
-        <v>11.428571428571429</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -20040,7 +20044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>207</v>
       </c>
@@ -20083,7 +20087,7 @@
       </c>
       <c r="M109">
         <f>'Trade Studies'!T4</f>
-        <v>12.19047619047619</v>
+        <v>12.5</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -20179,7 +20183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>207</v>
       </c>
@@ -20222,7 +20226,7 @@
       </c>
       <c r="M110">
         <f>'Trade Studies'!T5</f>
-        <v>12.952380952380953</v>
+        <v>11.764705882352942</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -20318,7 +20322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>207</v>
       </c>
@@ -20361,7 +20365,7 @@
       </c>
       <c r="M111">
         <f>'Trade Studies'!T6</f>
-        <v>13.714285714285715</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -20457,7 +20461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>207</v>
       </c>
@@ -20500,7 +20504,7 @@
       </c>
       <c r="M112">
         <f>'Trade Studies'!T7</f>
-        <v>14.476190476190476</v>
+        <v>10.526315789473685</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -20596,7 +20600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>207</v>
       </c>
@@ -20639,7 +20643,7 @@
       </c>
       <c r="M113">
         <f>'Trade Studies'!T8</f>
-        <v>15.238095238095241</v>
+        <v>10</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -20735,7 +20739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>207</v>
       </c>
@@ -20778,7 +20782,7 @@
       </c>
       <c r="M114">
         <f>'Trade Studies'!T9</f>
-        <v>16</v>
+        <v>9.5238095238095237</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -20874,7 +20878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>207</v>
       </c>
@@ -20917,7 +20921,7 @@
       </c>
       <c r="M115">
         <f>'Trade Studies'!T10</f>
-        <v>16.761904761904759</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -21013,7 +21017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>207</v>
       </c>
@@ -21056,7 +21060,7 @@
       </c>
       <c r="M116">
         <f>'Trade Studies'!T11</f>
-        <v>17.523809523809526</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -21152,7 +21156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>207</v>
       </c>
@@ -21195,7 +21199,7 @@
       </c>
       <c r="M117">
         <f>'Trade Studies'!T12</f>
-        <v>18.285714285714281</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -21291,7 +21295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>207</v>
       </c>
@@ -21334,7 +21338,7 @@
       </c>
       <c r="M118">
         <f>'Trade Studies'!T13</f>
-        <v>19.047619047619047</v>
+        <v>8</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -21430,7 +21434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>207</v>
       </c>
@@ -21473,7 +21477,7 @@
       </c>
       <c r="M119">
         <f>'Trade Studies'!T14</f>
-        <v>19.809523809523814</v>
+        <v>7.6923076923076925</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -21569,7 +21573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>207</v>
       </c>
@@ -21612,7 +21616,7 @@
       </c>
       <c r="M120">
         <f>'Trade Studies'!T15</f>
-        <v>20.571428571428569</v>
+        <v>7.4074074074074074</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -21708,7 +21712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>207</v>
       </c>
@@ -21751,7 +21755,7 @@
       </c>
       <c r="M121">
         <f>'Trade Studies'!T16</f>
-        <v>21.333333333333336</v>
+        <v>7.1428571428571432</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -21859,13 +21863,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94F0863-92D3-4D09-AB46-4B2505CCFE70}">
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>30</v>
       </c>
@@ -21915,7 +21919,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>7</v>
       </c>
@@ -21955,39 +21959,39 @@
         <v>7</v>
       </c>
       <c r="M2">
-        <f>$N$1/L2</f>
+        <f xml:space="preserve"> ($M$1^2)/(L2*$M$1)</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="N2">
+        <f>$N$1/$L2</f>
         <v>5.7142857142857144</v>
       </c>
-      <c r="N2">
-        <f>$M$1/M2</f>
-        <v>5.25</v>
-      </c>
       <c r="O2">
-        <f>$O$1/N2</f>
-        <v>9.5238095238095237</v>
+        <f>$O$1/$L2</f>
+        <v>7.1428571428571432</v>
       </c>
       <c r="P2">
-        <f>$P$1/O2</f>
-        <v>6.3</v>
+        <f>$P$1/$L2</f>
+        <v>8.5714285714285712</v>
       </c>
       <c r="Q2">
-        <f>$Q$1/P2</f>
-        <v>11.111111111111111</v>
+        <f>$Q$1/$L2</f>
+        <v>10</v>
       </c>
       <c r="R2">
-        <f>$R$1/Q2</f>
-        <v>7.2</v>
+        <f>$R$1/$L2</f>
+        <v>11.428571428571429</v>
       </c>
       <c r="S2">
-        <f>$S$1/R2</f>
-        <v>12.5</v>
+        <f>$S$1/$L2</f>
+        <v>12.857142857142858</v>
       </c>
       <c r="T2">
-        <f>$T$1/S2</f>
-        <v>8</v>
+        <f>$T$1/$L2</f>
+        <v>14.285714285714286</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>7.5</v>
       </c>
@@ -22027,39 +22031,39 @@
         <v>7.5</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:N16" si="6">$M$1/L3</f>
+        <f t="shared" ref="M3:M16" si="6" xml:space="preserve"> ($M$1^2)/(L3*$M$1)</f>
         <v>4</v>
       </c>
       <c r="N3">
-        <f t="shared" si="6"/>
-        <v>7.5</v>
+        <f t="shared" ref="N3:N16" si="7">$N$1/$L3</f>
+        <v>5.333333333333333</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O16" si="7">$O$1/N3</f>
+        <f t="shared" ref="O3:O16" si="8">$O$1/$L3</f>
         <v>6.666666666666667</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P16" si="8">$P$1/O3</f>
-        <v>9</v>
+        <f t="shared" ref="P3:P16" si="9">$P$1/$L3</f>
+        <v>8</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q16" si="9">$Q$1/P3</f>
-        <v>7.7777777777777777</v>
+        <f t="shared" ref="Q3:Q16" si="10">$Q$1/$L3</f>
+        <v>9.3333333333333339</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R16" si="10">$R$1/Q3</f>
-        <v>10.285714285714286</v>
+        <f t="shared" ref="R3:R16" si="11">$R$1/$L3</f>
+        <v>10.666666666666666</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S16" si="11">$S$1/R3</f>
-        <v>8.75</v>
+        <f t="shared" ref="S3:S16" si="12">$S$1/$L3</f>
+        <v>12</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T16" si="12">$T$1/S3</f>
-        <v>11.428571428571429</v>
+        <f t="shared" ref="T3:T16" si="13">$T$1/$L3</f>
+        <v>13.333333333333334</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>8</v>
       </c>
@@ -22068,7 +22072,7 @@
         <v>240</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C16" si="13">A4*$C$1</f>
+        <f t="shared" ref="C4:C16" si="14">A4*$C$1</f>
         <v>320</v>
       </c>
       <c r="D4">
@@ -22099,48 +22103,48 @@
         <v>8</v>
       </c>
       <c r="M4">
-        <f t="shared" si="6"/>
+        <f xml:space="preserve"> ($M$1^2)/(L4*$M$1)</f>
         <v>3.75</v>
       </c>
       <c r="N4">
-        <f t="shared" si="6"/>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="O4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.25</v>
       </c>
       <c r="P4">
-        <f t="shared" si="8"/>
-        <v>9.6</v>
+        <f t="shared" si="9"/>
+        <v>7.5</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="9"/>
-        <v>7.291666666666667</v>
+        <f t="shared" si="10"/>
+        <v>8.75</v>
       </c>
       <c r="R4">
-        <f t="shared" si="10"/>
-        <v>10.971428571428572</v>
+        <f t="shared" si="11"/>
+        <v>10</v>
       </c>
       <c r="S4">
-        <f t="shared" si="11"/>
-        <v>8.203125</v>
+        <f t="shared" si="12"/>
+        <v>11.25</v>
       </c>
       <c r="T4">
-        <f t="shared" si="12"/>
-        <v>12.19047619047619</v>
+        <f t="shared" si="13"/>
+        <v>12.5</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>8.5</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B16" si="14">A5*$B$1</f>
+        <f t="shared" ref="B5:B16" si="15">A5*$B$1</f>
         <v>255</v>
       </c>
       <c r="C5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>340</v>
       </c>
       <c r="D5">
@@ -22171,48 +22175,48 @@
         <v>8.5</v>
       </c>
       <c r="M5">
-        <f t="shared" si="6"/>
+        <f xml:space="preserve"> ($M$1^2)/(L5*$M$1)</f>
         <v>3.5294117647058822</v>
       </c>
       <c r="N5">
-        <f t="shared" si="6"/>
-        <v>8.5</v>
+        <f t="shared" si="7"/>
+        <v>4.7058823529411766</v>
       </c>
       <c r="O5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.882352941176471</v>
       </c>
       <c r="P5">
-        <f t="shared" si="8"/>
-        <v>10.199999999999999</v>
+        <f t="shared" si="9"/>
+        <v>7.0588235294117645</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="9"/>
-        <v>6.8627450980392162</v>
+        <f t="shared" si="10"/>
+        <v>8.235294117647058</v>
       </c>
       <c r="R5">
-        <f t="shared" si="10"/>
-        <v>11.657142857142857</v>
+        <f t="shared" si="11"/>
+        <v>9.4117647058823533</v>
       </c>
       <c r="S5">
-        <f t="shared" si="11"/>
-        <v>7.7205882352941178</v>
+        <f t="shared" si="12"/>
+        <v>10.588235294117647</v>
       </c>
       <c r="T5">
-        <f t="shared" si="12"/>
-        <v>12.952380952380953</v>
+        <f t="shared" si="13"/>
+        <v>11.764705882352942</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>9</v>
       </c>
       <c r="B6">
+        <f t="shared" si="15"/>
+        <v>270</v>
+      </c>
+      <c r="C6">
         <f t="shared" si="14"/>
-        <v>270</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="13"/>
         <v>360</v>
       </c>
       <c r="D6">
@@ -22247,44 +22251,44 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="N6">
-        <f t="shared" si="6"/>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>4.4444444444444446</v>
       </c>
       <c r="O6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="P6">
-        <f t="shared" si="8"/>
-        <v>10.8</v>
+        <f t="shared" si="9"/>
+        <v>6.666666666666667</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="9"/>
-        <v>6.481481481481481</v>
+        <f t="shared" si="10"/>
+        <v>7.7777777777777777</v>
       </c>
       <c r="R6">
-        <f t="shared" si="10"/>
-        <v>12.342857142857143</v>
+        <f t="shared" si="11"/>
+        <v>8.8888888888888893</v>
       </c>
       <c r="S6">
-        <f t="shared" si="11"/>
-        <v>7.2916666666666661</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="T6">
-        <f t="shared" si="12"/>
-        <v>13.714285714285715</v>
+        <f t="shared" si="13"/>
+        <v>11.111111111111111</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9.5</v>
       </c>
       <c r="B7">
+        <f t="shared" si="15"/>
+        <v>285</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="14"/>
-        <v>285</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="13"/>
         <v>380</v>
       </c>
       <c r="D7">
@@ -22319,44 +22323,44 @@
         <v>3.1578947368421053</v>
       </c>
       <c r="N7">
-        <f t="shared" si="6"/>
-        <v>9.5</v>
+        <f t="shared" si="7"/>
+        <v>4.2105263157894735</v>
       </c>
       <c r="O7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2631578947368425</v>
       </c>
       <c r="P7">
-        <f t="shared" si="8"/>
-        <v>11.399999999999999</v>
+        <f t="shared" si="9"/>
+        <v>6.3157894736842106</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="9"/>
-        <v>6.1403508771929829</v>
+        <f t="shared" si="10"/>
+        <v>7.3684210526315788</v>
       </c>
       <c r="R7">
-        <f t="shared" si="10"/>
-        <v>13.028571428571428</v>
+        <f t="shared" si="11"/>
+        <v>8.4210526315789469</v>
       </c>
       <c r="S7">
-        <f t="shared" si="11"/>
-        <v>6.9078947368421053</v>
+        <f t="shared" si="12"/>
+        <v>9.473684210526315</v>
       </c>
       <c r="T7">
-        <f t="shared" si="12"/>
-        <v>14.476190476190476</v>
+        <f t="shared" si="13"/>
+        <v>10.526315789473685</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>10</v>
       </c>
       <c r="B8">
+        <f t="shared" si="15"/>
+        <v>300</v>
+      </c>
+      <c r="C8">
         <f t="shared" si="14"/>
-        <v>300</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="13"/>
         <v>400</v>
       </c>
       <c r="D8">
@@ -22391,44 +22395,44 @@
         <v>3</v>
       </c>
       <c r="N8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="O8">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="9"/>
-        <v>5.833333333333333</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="10"/>
-        <v>13.714285714285715</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="11"/>
-        <v>6.5624999999999991</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="12"/>
-        <v>15.238095238095241</v>
-      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>10.5</v>
       </c>
       <c r="B9">
+        <f t="shared" si="15"/>
+        <v>315</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="14"/>
-        <v>315</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="13"/>
         <v>420</v>
       </c>
       <c r="D9">
@@ -22463,44 +22467,44 @@
         <v>2.8571428571428572</v>
       </c>
       <c r="N9">
-        <f t="shared" si="6"/>
-        <v>10.5</v>
+        <f t="shared" si="7"/>
+        <v>3.8095238095238093</v>
       </c>
       <c r="O9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.7619047619047619</v>
       </c>
       <c r="P9">
-        <f t="shared" si="8"/>
-        <v>12.6</v>
+        <f t="shared" si="9"/>
+        <v>5.7142857142857144</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="9"/>
-        <v>5.5555555555555554</v>
+        <f t="shared" si="10"/>
+        <v>6.666666666666667</v>
       </c>
       <c r="R9">
-        <f t="shared" si="10"/>
-        <v>14.4</v>
+        <f t="shared" si="11"/>
+        <v>7.6190476190476186</v>
       </c>
       <c r="S9">
-        <f t="shared" si="11"/>
-        <v>6.25</v>
+        <f t="shared" si="12"/>
+        <v>8.5714285714285712</v>
       </c>
       <c r="T9">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="13"/>
+        <v>9.5238095238095237</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>11</v>
       </c>
       <c r="B10">
+        <f t="shared" si="15"/>
+        <v>330</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="14"/>
-        <v>330</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="13"/>
         <v>440</v>
       </c>
       <c r="D10">
@@ -22535,44 +22539,44 @@
         <v>2.7272727272727271</v>
       </c>
       <c r="N10">
-        <f t="shared" si="6"/>
-        <v>11</v>
+        <f t="shared" si="7"/>
+        <v>3.6363636363636362</v>
       </c>
       <c r="O10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.5454545454545459</v>
       </c>
       <c r="P10">
-        <f t="shared" si="8"/>
-        <v>13.2</v>
+        <f t="shared" si="9"/>
+        <v>5.4545454545454541</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="9"/>
-        <v>5.3030303030303036</v>
+        <f t="shared" si="10"/>
+        <v>6.3636363636363633</v>
       </c>
       <c r="R10">
-        <f t="shared" si="10"/>
-        <v>15.085714285714284</v>
+        <f t="shared" si="11"/>
+        <v>7.2727272727272725</v>
       </c>
       <c r="S10">
-        <f t="shared" si="11"/>
-        <v>5.9659090909090917</v>
+        <f t="shared" si="12"/>
+        <v>8.1818181818181817</v>
       </c>
       <c r="T10">
-        <f t="shared" si="12"/>
-        <v>16.761904761904759</v>
+        <f t="shared" si="13"/>
+        <v>9.0909090909090917</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11.5</v>
       </c>
       <c r="B11">
+        <f t="shared" si="15"/>
+        <v>345</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="14"/>
-        <v>345</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="13"/>
         <v>460</v>
       </c>
       <c r="D11">
@@ -22607,44 +22611,44 @@
         <v>2.6086956521739131</v>
       </c>
       <c r="N11">
-        <f t="shared" si="6"/>
-        <v>11.5</v>
+        <f t="shared" si="7"/>
+        <v>3.4782608695652173</v>
       </c>
       <c r="O11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.3478260869565215</v>
       </c>
       <c r="P11">
-        <f t="shared" si="8"/>
-        <v>13.8</v>
+        <f t="shared" si="9"/>
+        <v>5.2173913043478262</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="9"/>
-        <v>5.0724637681159415</v>
+        <f t="shared" si="10"/>
+        <v>6.0869565217391308</v>
       </c>
       <c r="R11">
-        <f t="shared" si="10"/>
-        <v>15.771428571428574</v>
+        <f t="shared" si="11"/>
+        <v>6.9565217391304346</v>
       </c>
       <c r="S11">
-        <f t="shared" si="11"/>
-        <v>5.7065217391304337</v>
+        <f t="shared" si="12"/>
+        <v>7.8260869565217392</v>
       </c>
       <c r="T11">
-        <f t="shared" si="12"/>
-        <v>17.523809523809526</v>
+        <f t="shared" si="13"/>
+        <v>8.695652173913043</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12">
+        <f t="shared" si="15"/>
+        <v>360</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="14"/>
-        <v>360</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="13"/>
         <v>480</v>
       </c>
       <c r="D12">
@@ -22679,44 +22683,44 @@
         <v>2.5</v>
       </c>
       <c r="N12">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>3.3333333333333335</v>
       </c>
       <c r="O12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.166666666666667</v>
       </c>
       <c r="P12">
-        <f t="shared" si="8"/>
-        <v>14.399999999999999</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="9"/>
-        <v>4.8611111111111116</v>
+        <f t="shared" si="10"/>
+        <v>5.833333333333333</v>
       </c>
       <c r="R12">
-        <f t="shared" si="10"/>
-        <v>16.457142857142856</v>
+        <f t="shared" si="11"/>
+        <v>6.666666666666667</v>
       </c>
       <c r="S12">
-        <f t="shared" si="11"/>
-        <v>5.4687500000000009</v>
+        <f t="shared" si="12"/>
+        <v>7.5</v>
       </c>
       <c r="T12">
-        <f t="shared" si="12"/>
-        <v>18.285714285714281</v>
+        <f t="shared" si="13"/>
+        <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12.5</v>
       </c>
       <c r="B13">
+        <f t="shared" si="15"/>
+        <v>375</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="14"/>
-        <v>375</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="D13">
@@ -22751,44 +22755,44 @@
         <v>2.4</v>
       </c>
       <c r="N13">
-        <f t="shared" si="6"/>
-        <v>12.5</v>
+        <f t="shared" si="7"/>
+        <v>3.2</v>
       </c>
       <c r="O13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="P13">
-        <f t="shared" si="8"/>
-        <v>15</v>
+        <f t="shared" si="9"/>
+        <v>4.8</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="9"/>
-        <v>4.666666666666667</v>
+        <f t="shared" si="10"/>
+        <v>5.6</v>
       </c>
       <c r="R13">
-        <f t="shared" si="10"/>
-        <v>17.142857142857142</v>
+        <f t="shared" si="11"/>
+        <v>6.4</v>
       </c>
       <c r="S13">
-        <f t="shared" si="11"/>
-        <v>5.25</v>
+        <f t="shared" si="12"/>
+        <v>7.2</v>
       </c>
       <c r="T13">
-        <f t="shared" si="12"/>
-        <v>19.047619047619047</v>
+        <f t="shared" si="13"/>
+        <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
+        <f t="shared" si="15"/>
+        <v>390</v>
+      </c>
+      <c r="C14">
         <f t="shared" si="14"/>
-        <v>390</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="13"/>
         <v>520</v>
       </c>
       <c r="D14">
@@ -22823,44 +22827,44 @@
         <v>2.3076923076923075</v>
       </c>
       <c r="N14">
-        <f t="shared" si="6"/>
-        <v>13.000000000000002</v>
+        <f t="shared" si="7"/>
+        <v>3.0769230769230771</v>
       </c>
       <c r="O14">
-        <f t="shared" si="7"/>
-        <v>3.8461538461538458</v>
+        <f t="shared" si="8"/>
+        <v>3.8461538461538463</v>
       </c>
       <c r="P14">
-        <f t="shared" si="8"/>
-        <v>15.600000000000001</v>
+        <f t="shared" si="9"/>
+        <v>4.615384615384615</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="9"/>
-        <v>4.4871794871794863</v>
+        <f t="shared" si="10"/>
+        <v>5.384615384615385</v>
       </c>
       <c r="R14">
-        <f t="shared" si="10"/>
-        <v>17.828571428571433</v>
+        <f t="shared" si="11"/>
+        <v>6.1538461538461542</v>
       </c>
       <c r="S14">
-        <f t="shared" si="11"/>
-        <v>5.0480769230769216</v>
+        <f t="shared" si="12"/>
+        <v>6.9230769230769234</v>
       </c>
       <c r="T14">
-        <f t="shared" si="12"/>
-        <v>19.809523809523814</v>
+        <f t="shared" si="13"/>
+        <v>7.6923076923076925</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13.5</v>
       </c>
       <c r="B15">
+        <f t="shared" si="15"/>
+        <v>405</v>
+      </c>
+      <c r="C15">
         <f t="shared" si="14"/>
-        <v>405</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="13"/>
         <v>540</v>
       </c>
       <c r="D15">
@@ -22895,44 +22899,44 @@
         <v>2.2222222222222223</v>
       </c>
       <c r="N15">
-        <f t="shared" si="6"/>
-        <v>13.5</v>
+        <f t="shared" si="7"/>
+        <v>2.9629629629629628</v>
       </c>
       <c r="O15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7037037037037037</v>
       </c>
       <c r="P15">
-        <f t="shared" si="8"/>
-        <v>16.2</v>
+        <f t="shared" si="9"/>
+        <v>4.4444444444444446</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="9"/>
-        <v>4.3209876543209882</v>
+        <f t="shared" si="10"/>
+        <v>5.1851851851851851</v>
       </c>
       <c r="R15">
-        <f t="shared" si="10"/>
-        <v>18.514285714285712</v>
+        <f t="shared" si="11"/>
+        <v>5.9259259259259256</v>
       </c>
       <c r="S15">
-        <f t="shared" si="11"/>
-        <v>4.8611111111111116</v>
+        <f t="shared" si="12"/>
+        <v>6.666666666666667</v>
       </c>
       <c r="T15">
-        <f t="shared" si="12"/>
-        <v>20.571428571428569</v>
+        <f t="shared" si="13"/>
+        <v>7.4074074074074074</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
+        <f t="shared" si="15"/>
+        <v>420</v>
+      </c>
+      <c r="C16">
         <f t="shared" si="14"/>
-        <v>420</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="13"/>
         <v>560</v>
       </c>
       <c r="D16">
@@ -22963,36 +22967,36 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <f t="shared" si="6"/>
+        <f xml:space="preserve"> ($M$1^2)/(L16*$M$1)</f>
         <v>2.1428571428571428</v>
       </c>
       <c r="N16">
-        <f t="shared" si="6"/>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>2.8571428571428572</v>
       </c>
       <c r="O16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.5714285714285716</v>
       </c>
       <c r="P16">
-        <f t="shared" si="8"/>
-        <v>16.8</v>
+        <f t="shared" si="9"/>
+        <v>4.2857142857142856</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="9"/>
-        <v>4.1666666666666661</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="R16">
-        <f t="shared" si="10"/>
-        <v>19.200000000000003</v>
+        <f t="shared" si="11"/>
+        <v>5.7142857142857144</v>
       </c>
       <c r="S16">
-        <f t="shared" si="11"/>
-        <v>4.6874999999999991</v>
+        <f t="shared" si="12"/>
+        <v>6.4285714285714288</v>
       </c>
       <c r="T16">
-        <f t="shared" si="12"/>
-        <v>21.333333333333336</v>
+        <f t="shared" si="13"/>
+        <v>7.1428571428571432</v>
       </c>
     </row>
   </sheetData>
@@ -23008,18 +23012,18 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -23183,7 +23187,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="str">
         <f>Input!A2</f>
         <v>Row 1</v>
@@ -23350,7 +23354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="e">
         <f>Input!#REF!</f>
         <v>#REF!</v>
@@ -23518,7 +23522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="e">
         <f>Input!#REF!</f>
         <v>#REF!</v>
@@ -23538,9 +23542,9 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>101</v>
       </c>
@@ -23551,7 +23555,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>-5</v>
       </c>
@@ -23562,7 +23566,7 @@
         <v>4.4250999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>-4</v>
       </c>
@@ -23573,7 +23577,7 @@
         <v>3.3783000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>-3</v>
       </c>
@@ -23584,7 +23588,7 @@
         <v>2.8627E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>-2</v>
       </c>
@@ -23595,7 +23599,7 @@
         <v>2.5864000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>-1</v>
       </c>
@@ -23606,7 +23610,7 @@
         <v>2.4643000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -23617,7 +23621,7 @@
         <v>2.5099E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -23628,7 +23632,7 @@
         <v>2.5635000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -23639,7 +23643,7 @@
         <v>2.7660000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -23650,7 +23654,7 @@
         <v>3.0676999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -23661,7 +23665,7 @@
         <v>3.4854999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -23672,7 +23676,7 @@
         <v>4.0403000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -23683,7 +23687,7 @@
         <v>4.759E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -23694,7 +23698,7 @@
         <v>5.7107999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -23705,7 +23709,7 @@
         <v>7.0132E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>9</v>
       </c>
@@ -23716,7 +23720,7 @@
         <v>9.0921000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>10</v>
       </c>
@@ -23727,7 +23731,7 @@
         <v>0.11193</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>11</v>
       </c>
@@ -23738,7 +23742,7 @@
         <v>0.13253999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>12</v>
       </c>
@@ -23749,7 +23753,7 @@
         <v>0.15645000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E21" s="5"/>
       <c r="F21" s="15"/>
     </row>
@@ -23767,16 +23771,16 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>104</v>
       </c>
@@ -23793,7 +23797,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>20.8</v>
       </c>
@@ -23810,7 +23814,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>108</v>
       </c>
